--- a/NEW HR/DE CASTRO, CHRISTINE JEAN.xlsx
+++ b/NEW HR/DE CASTRO, CHRISTINE JEAN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1316,7 +1316,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,7 +1490,7 @@
       <c r="D9" s="13"/>
       <c r="E9" s="15">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>42.917000000000002</v>
+        <v>44.167000000000002</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="15" t="str">
@@ -1500,7 +1500,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="15">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>39.917000000000002</v>
+        <v>41.167000000000002</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="22"/>
@@ -3045,7 +3045,9 @@
       <c r="A80" s="25">
         <v>44927</v>
       </c>
-      <c r="B80" s="13"/>
+      <c r="B80" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="C80" s="15">
         <v>1.25</v>
       </c>
@@ -3086,15 +3088,19 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="25"/>
+      <c r="A82" s="25">
+        <v>44986</v>
+      </c>
       <c r="B82" s="13"/>
-      <c r="C82" s="15"/>
+      <c r="C82" s="15">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="13"/>
       <c r="E82" s="10"/>
       <c r="F82" s="13"/>
-      <c r="G82" s="15" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="15">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="13"/>
       <c r="I82" s="10"/>

--- a/NEW HR/DE CASTRO, CHRISTINE JEAN.xlsx
+++ b/NEW HR/DE CASTRO, CHRISTINE JEAN.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
   <si>
     <t>PERIOD</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>2/20,21/2023</t>
+  </si>
+  <si>
+    <t>PARENTAL 1/20/2023</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -704,6 +707,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -982,7 +988,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K121" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K122" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1311,12 +1317,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K121"/>
+  <dimension ref="A2:K122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A67" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,7 +1506,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="15">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>41.167000000000002</v>
+        <v>40.167000000000002</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="22"/>
@@ -3058,65 +3064,73 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H80" s="13"/>
+      <c r="H80" s="13">
+        <v>1</v>
+      </c>
       <c r="I80" s="10"/>
       <c r="J80" s="13"/>
-      <c r="K80" s="22"/>
+      <c r="K80" s="40">
+        <v>44942</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="25">
-        <v>44958</v>
-      </c>
+      <c r="A81" s="25"/>
       <c r="B81" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C81" s="15">
-        <v>1.25</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C81" s="15"/>
       <c r="D81" s="14"/>
       <c r="E81" s="11"/>
       <c r="F81" s="14"/>
-      <c r="G81" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G81" s="15" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H81" s="14"/>
       <c r="I81" s="11"/>
       <c r="J81" s="14"/>
-      <c r="K81" s="17" t="s">
-        <v>80</v>
+      <c r="K81" s="65" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="25">
+        <v>44958</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C82" s="15">
+        <v>1.25</v>
+      </c>
+      <c r="D82" s="14"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="15">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H82" s="14"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="25">
         <v>44986</v>
       </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D82" s="13"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H82" s="13"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="22"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="25"/>
       <c r="B83" s="13"/>
-      <c r="C83" s="15"/>
+      <c r="C83" s="15">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="13"/>
       <c r="E83" s="10"/>
       <c r="F83" s="13"/>
-      <c r="G83" s="15" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="15">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="13"/>
       <c r="I83" s="10"/>
@@ -3461,19 +3475,19 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="25"/>
-      <c r="B105" s="14"/>
+      <c r="B105" s="13"/>
       <c r="C105" s="15"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="14"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="13"/>
       <c r="G105" s="15" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H105" s="14"/>
-      <c r="I105" s="11"/>
-      <c r="J105" s="14"/>
-      <c r="K105" s="17"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="13"/>
+      <c r="K105" s="22"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="25"/>
@@ -3486,10 +3500,10 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H106" s="13"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="13"/>
-      <c r="K106" s="22"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="14"/>
+      <c r="K106" s="17"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="25"/>
@@ -3646,26 +3660,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H116" s="14"/>
-      <c r="I116" s="11"/>
-      <c r="J116" s="14"/>
-      <c r="K116" s="17"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="13"/>
+      <c r="K116" s="22"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="25"/>
-      <c r="B117" s="13"/>
+      <c r="B117" s="14"/>
       <c r="C117" s="15"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="13"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="14"/>
       <c r="G117" s="15" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H117" s="13"/>
-      <c r="I117" s="10"/>
-      <c r="J117" s="13"/>
-      <c r="K117" s="22"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="14"/>
+      <c r="K117" s="17"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="25"/>
@@ -3717,19 +3731,35 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="25"/>
-      <c r="B121" s="14"/>
+      <c r="B121" s="13"/>
       <c r="C121" s="15"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="14"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="13"/>
       <c r="G121" s="15" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H121" s="14"/>
-      <c r="I121" s="11"/>
-      <c r="J121" s="14"/>
-      <c r="K121" s="17"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="13"/>
+      <c r="K121" s="22"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="25"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="15" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H122" s="14"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="14"/>
+      <c r="K122" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/NEW HR/DE CASTRO, CHRISTINE JEAN.xlsx
+++ b/NEW HR/DE CASTRO, CHRISTINE JEAN.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
   <si>
     <t>PERIOD</t>
   </si>
@@ -675,6 +675,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -707,9 +710,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1322,7 +1322,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,68 +1344,68 @@
       <c r="A2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="23" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="12"/>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="60"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="27"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="61">
+      <c r="F3" s="62">
         <v>43346</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="28" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="28"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="28" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="28"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -1438,18 +1438,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1506,7 +1506,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="15">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>40.167000000000002</v>
+        <v>38.167000000000002</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="22"/>
@@ -3089,7 +3089,7 @@
       <c r="H81" s="14"/>
       <c r="I81" s="11"/>
       <c r="J81" s="14"/>
-      <c r="K81" s="65" t="s">
+      <c r="K81" s="54" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3121,7 +3121,9 @@
       <c r="A83" s="25">
         <v>44986</v>
       </c>
-      <c r="B83" s="13"/>
+      <c r="B83" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="C83" s="15">
         <v>1.25</v>
       </c>
@@ -3132,14 +3134,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H83" s="13"/>
+      <c r="H83" s="13">
+        <v>1</v>
+      </c>
       <c r="I83" s="10"/>
       <c r="J83" s="13"/>
-      <c r="K83" s="22"/>
+      <c r="K83" s="40">
+        <v>44988</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="25"/>
-      <c r="B84" s="13"/>
+      <c r="B84" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="C84" s="15"/>
       <c r="D84" s="13"/>
       <c r="E84" s="10"/>
@@ -3148,14 +3156,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H84" s="13"/>
+      <c r="H84" s="13">
+        <v>1</v>
+      </c>
       <c r="I84" s="10"/>
       <c r="J84" s="13"/>
-      <c r="K84" s="22"/>
+      <c r="K84" s="40">
+        <v>44993</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="25"/>
-      <c r="B85" s="13"/>
+      <c r="B85" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="C85" s="15"/>
       <c r="D85" s="13"/>
       <c r="E85" s="10"/>
@@ -3167,7 +3181,9 @@
       <c r="H85" s="13"/>
       <c r="I85" s="10"/>
       <c r="J85" s="13"/>
-      <c r="K85" s="22"/>
+      <c r="K85" s="40">
+        <v>45012</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="25"/>
@@ -3825,17 +3841,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="J1" s="63" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="J1" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -3919,12 +3935,12 @@
       <c r="F6" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="38">

--- a/NEW HR/DE CASTRO, CHRISTINE JEAN.xlsx
+++ b/NEW HR/DE CASTRO, CHRISTINE JEAN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="82">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1320,9 +1320,9 @@
   <dimension ref="A2:K122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,7 +1506,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="15">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>38.167000000000002</v>
+        <v>37.167000000000002</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="22"/>
@@ -3187,7 +3187,9 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="25"/>
-      <c r="B86" s="13"/>
+      <c r="B86" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="C86" s="15"/>
       <c r="D86" s="13"/>
       <c r="E86" s="10"/>
@@ -3196,10 +3198,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H86" s="13"/>
+      <c r="H86" s="13">
+        <v>1</v>
+      </c>
       <c r="I86" s="10"/>
       <c r="J86" s="13"/>
-      <c r="K86" s="22"/>
+      <c r="K86" s="40">
+        <v>45013</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="25"/>

--- a/NEW HR/DE CASTRO, CHRISTINE JEAN.xlsx
+++ b/NEW HR/DE CASTRO, CHRISTINE JEAN.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
   <si>
     <t>PERIOD</t>
   </si>
@@ -287,6 +287,12 @@
   </si>
   <si>
     <t>PARENTAL 1/20/2023</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>5/2-4/2023</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1328,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+      <selection pane="bottomLeft" activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1502,7 @@
       <c r="D9" s="13"/>
       <c r="E9" s="15">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>44.167000000000002</v>
+        <v>45.417000000000002</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="15" t="str">
@@ -1506,7 +1512,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="15">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>37.167000000000002</v>
+        <v>35.417000000000002</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="22"/>
@@ -3208,15 +3214,19 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="25"/>
+      <c r="A87" s="25">
+        <v>45017</v>
+      </c>
       <c r="B87" s="13"/>
-      <c r="C87" s="15"/>
+      <c r="C87" s="15">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="13"/>
       <c r="E87" s="10"/>
       <c r="F87" s="13"/>
-      <c r="G87" s="15" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="15">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="13"/>
       <c r="I87" s="10"/>
@@ -3224,8 +3234,12 @@
       <c r="K87" s="22"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="25"/>
-      <c r="B88" s="13"/>
+      <c r="A88" s="25">
+        <v>45047</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="C88" s="15"/>
       <c r="D88" s="13"/>
       <c r="E88" s="10"/>
@@ -3234,10 +3248,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H88" s="13"/>
+      <c r="H88" s="13">
+        <v>3</v>
+      </c>
       <c r="I88" s="10"/>
       <c r="J88" s="13"/>
-      <c r="K88" s="22"/>
+      <c r="K88" s="22" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="25"/>
